--- a/results/[8_natural_gas_friendly]_#_inv_capacity.xlsx
+++ b/results/[8_natural_gas_friendly]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04318040778459964</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01354810000000001</v>
+        <v>0.0008630959698206382</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1608019174358236</v>
+        <v>0.3707083019056102</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4932933</v>
+        <v>0.6522940196752842</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143727</v>
+        <v>0.3150122101148058</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0453661</v>
+        <v>0.08569991666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>4.729453459927667</v>
+        <v>12.81572300722258</v>
       </c>
       <c r="O2" t="n">
-        <v>3.657075980161121</v>
+        <v>3.087566746787787</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1900609674138325</v>
+        <v>0.006109625212652015</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.04996758146600301</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3844068787379454</v>
+        <v>0.2221320845210674</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.038329113083583</v>
+        <v>0.5435695833333334</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3195688202497503</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1469855666666667</v>
+        <v>0.04727991666666674</v>
       </c>
       <c r="N2" t="n">
-        <v>9.226079637256531</v>
+        <v>5.250308734235212</v>
       </c>
       <c r="O2" t="n">
-        <v>3.053629066992677</v>
+        <v>2.141760504764548</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3431671523827213</v>
+        <v>0.2127705</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02878059498302349</v>
+        <v>0.04380969999999995</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7376446836305555</v>
+        <v>0.08036855622576544</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.353274540186391</v>
+        <v>0.4209396056630867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2884576575626278</v>
+        <v>0.04866624788015655</v>
       </c>
       <c r="N2" t="n">
-        <v>14.86799398244575</v>
+        <v>4.304825345210443</v>
       </c>
       <c r="O2" t="n">
-        <v>20.96034348213824</v>
+        <v>6.77691883767349</v>
       </c>
     </row>
   </sheetData>

--- a/results/[8_natural_gas_friendly]_#_inv_capacity.xlsx
+++ b/results/[8_natural_gas_friendly]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0008630959698206382</v>
+        <v>4.227743582363441e-05</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3707083019056102</v>
+        <v>0.371558911252095</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6522940196752842</v>
+        <v>0.65827295846499</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3150122101148058</v>
+        <v>0.3051931082016766</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08569991666666667</v>
+        <v>0.08616133333333333</v>
       </c>
       <c r="N2" t="n">
-        <v>12.81572300722258</v>
+        <v>12.85838940444553</v>
       </c>
       <c r="O2" t="n">
-        <v>3.087566746787787</v>
+        <v>3.053012352016873</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.006109625212652015</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04996758146600301</v>
+        <v>0.07253249735152435</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2221320845210674</v>
+        <v>0.3625865573148273</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5435695833333334</v>
+        <v>0.857380294591765</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04727991666666674</v>
+        <v>0.08230458333333336</v>
       </c>
       <c r="N2" t="n">
-        <v>5.250308734235212</v>
+        <v>9.168045125790171</v>
       </c>
       <c r="O2" t="n">
-        <v>2.141760504764548</v>
+        <v>3.528007792201617</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2127705</v>
+        <v>0.2440261591595064</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04380969999999995</v>
+        <v>0.0422413368519816</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08036855622576544</v>
+        <v>0.0572515092927538</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4209396056630867</v>
+        <v>0.4129214781397788</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04866624788015655</v>
+        <v>0.0475770833333333</v>
       </c>
       <c r="N2" t="n">
-        <v>4.304825345210443</v>
+        <v>3.941306640199873</v>
       </c>
       <c r="O2" t="n">
-        <v>6.77691883767349</v>
+        <v>6.977422630444634</v>
       </c>
     </row>
   </sheetData>

--- a/results/[8_natural_gas_friendly]_#_inv_capacity.xlsx
+++ b/results/[8_natural_gas_friendly]_#_inv_capacity.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04318040778459964</v>
+        <v>0.1774173491026326</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01354810000000001</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.6988865504857342</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1608019174358236</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3247024241048813</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4932933</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143727</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0453661</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.729453459927667</v>
+        <v>7.862176127467866</v>
       </c>
       <c r="O2" t="n">
-        <v>3.657075980161121</v>
+        <v>3.364628064996621</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1900609674138325</v>
+        <v>0.1784518902710298</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.220795686899256</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3844068787379454</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2403690565694547</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1393700898393662</v>
       </c>
       <c r="I2" t="n">
-        <v>1.038329113083583</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3195688202497503</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1469855666666667</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.226079637256531</v>
+        <v>26.09700856829501</v>
       </c>
       <c r="O2" t="n">
-        <v>3.053629066992677</v>
+        <v>6.646311143090884</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3431671523827213</v>
+        <v>0.9125903823651489</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02878059498302349</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.605660048695333</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7376446836305555</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.03015563704990021</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1261817221222208</v>
       </c>
       <c r="I2" t="n">
-        <v>2.353274540186391</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2884576575626278</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14.86799398244575</v>
+        <v>26.02971581004753</v>
       </c>
       <c r="O2" t="n">
-        <v>20.96034348213824</v>
+        <v>7.28582115024548</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[8_natural_gas_friendly]_#_inv_capacity.xlsx
+++ b/results/[8_natural_gas_friendly]_#_inv_capacity.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1774173491026326</v>
+        <v>0.1774173491026327</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6988865504857342</v>
+        <v>0.6988865504857341</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3247024241048813</v>
+        <v>0.3247024241048814</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.862176127467866</v>
+        <v>7.86217612746788</v>
       </c>
       <c r="O2" t="n">
         <v>3.364628064996621</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1784518902710298</v>
+        <v>0.1784518902710297</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2403690565694547</v>
+        <v>0.2403690565694546</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.09700856829501</v>
+        <v>26.09700856829478</v>
       </c>
       <c r="O2" t="n">
-        <v>6.646311143090884</v>
+        <v>6.646311143090879</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9125903823651489</v>
+        <v>0.9125903823652091</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.605660048695333</v>
+        <v>1.605660048695328</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03015563704990021</v>
+        <v>0.03015563704984459</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1261817221222208</v>
+        <v>0.1261817221222201</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.02971581004753</v>
+        <v>26.02971581004618</v>
       </c>
       <c r="O2" t="n">
-        <v>7.28582115024548</v>
+        <v>7.285821150245511</v>
       </c>
     </row>
   </sheetData>

--- a/results/[8_natural_gas_friendly]_#_inv_capacity.xlsx
+++ b/results/[8_natural_gas_friendly]_#_inv_capacity.xlsx
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.371558911252095</v>
+        <v>0.3715589112520924</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.2494892361375332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.65827295846499</v>
+        <v>0.6582729584649775</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3051931082016766</v>
+        <v>0.3051931082016891</v>
       </c>
       <c r="M2" t="n">
         <v>0.08616133333333333</v>
       </c>
       <c r="N2" t="n">
-        <v>12.85838940444553</v>
+        <v>12.85838940444502</v>
       </c>
       <c r="O2" t="n">
-        <v>3.053012352016873</v>
+        <v>3.053012352016879</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07253249735152435</v>
+        <v>0.07253249735152423</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3625865573148273</v>
+        <v>0.3625865573148261</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.857380294591765</v>
+        <v>0.8573802945917647</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0.08230458333333336</v>
       </c>
       <c r="N2" t="n">
-        <v>9.168045125790171</v>
+        <v>9.168045125790313</v>
       </c>
       <c r="O2" t="n">
-        <v>3.528007792201617</v>
+        <v>3.528007792201609</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2440261591595064</v>
+        <v>0.2440261591595169</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0422413368519816</v>
+        <v>0.04224133685198218</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0572515092927538</v>
+        <v>0.0572515092927528</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4129214781397788</v>
+        <v>0.4129214781397503</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0.0475770833333333</v>
       </c>
       <c r="N2" t="n">
-        <v>3.941306640199873</v>
+        <v>3.941306640199041</v>
       </c>
       <c r="O2" t="n">
-        <v>6.977422630444634</v>
+        <v>6.977422630445352</v>
       </c>
     </row>
   </sheetData>
